--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B537472-2B49-4B10-8FE8-95F0B5FC4CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6057D8-4D82-4385-B9B7-6ECBC1F050A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="255" windowWidth="15915" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="5610" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -789,7 +789,7 @@
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6057D8-4D82-4385-B9B7-6ECBC1F050A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51C01B8-E0FD-41F8-BDB6-8CED515BEC87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="5610" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2730" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$X$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$Y$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Scenario</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>For-Profit College</t>
+  </si>
+  <si>
+    <t>Margin</t>
   </si>
 </sst>
 </file>
@@ -362,18 +365,16 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -391,19 +392,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,16 +416,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -782,44 +772,45 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:X9"/>
+  <dimension ref="B2:Y9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -829,306 +820,318 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="R2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="S2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="T2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="W2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="G3" s="21">
         <v>0.25</v>
       </c>
-      <c r="G3" s="27">
+      <c r="H3" s="21">
         <v>0.5</v>
       </c>
-      <c r="H3" s="27">
+      <c r="I3" s="21">
         <v>0.25</v>
       </c>
-      <c r="I3" s="30">
+      <c r="J3" s="4">
         <v>36.871688739980776</v>
       </c>
-      <c r="J3" s="31">
+      <c r="K3" s="24">
         <v>18.077297612212142</v>
       </c>
-      <c r="K3" s="30">
+      <c r="L3" s="4">
         <v>3.9588553533675892</v>
       </c>
-      <c r="L3" s="32">
-        <f>100-SUM(I3:K3)</f>
+      <c r="M3" s="25">
+        <f>100-SUM(J3:L3)</f>
         <v>41.092158294439493</v>
       </c>
-      <c r="M3" s="9">
-        <f>100-L3-SUM(N3:O3)-E3</f>
+      <c r="N3" s="7">
+        <f>100-M3-SUM(O3:P3)-F3</f>
         <v>37.907841705560507</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
+      <c r="P3" s="26">
         <v>6</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>36</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="R3" s="23">
         <v>0</v>
       </c>
-      <c r="R3" s="29">
-        <f>Q3 * (12 / S3)</f>
+      <c r="S3" s="23">
+        <f>R3 * (12 / T3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="29">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="23">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="29">
-        <v>1</v>
-      </c>
-      <c r="W3" s="7">
+      <c r="W3" s="23">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
         <v>0</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="27">
+      <c r="G4" s="21">
         <v>0.25</v>
       </c>
-      <c r="G4" s="27">
+      <c r="H4" s="21">
         <v>0.5</v>
       </c>
-      <c r="H4" s="27">
+      <c r="I4" s="21">
         <v>0.25</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="4">
         <v>54.298366358291453</v>
       </c>
-      <c r="J4" s="31">
+      <c r="K4" s="24">
         <v>9.8466660264413051</v>
       </c>
-      <c r="K4" s="30">
+      <c r="L4" s="4">
         <v>1.7125985295518689</v>
       </c>
-      <c r="L4" s="32">
-        <f t="shared" ref="L4:L5" si="0">100-SUM(I4:K4)</f>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M5" si="0">100-SUM(J4:L4)</f>
         <v>34.142369085715373</v>
       </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4:M5" si="1">100-L4-SUM(N4:O4)-E4</f>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N5" si="1">100-M4-SUM(O4:P4)-F4</f>
         <v>39.857630914284627</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>18</v>
       </c>
-      <c r="O4" s="33">
+      <c r="P4" s="26">
         <v>2.9999999999999956</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>24</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="R4" s="23">
         <v>0</v>
       </c>
-      <c r="R4" s="29">
-        <f t="shared" ref="R4:R5" si="2">Q4 * (12 / S4)</f>
+      <c r="S4" s="23">
+        <f t="shared" ref="S4:S5" si="2">R4 * (12 / T4)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="29">
-        <v>1</v>
-      </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="23">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="29">
-        <v>1</v>
-      </c>
-      <c r="W4" s="7">
+      <c r="W4" s="23">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
         <v>0</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <f t="shared" ref="B5" si="3">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="G5" s="21">
         <v>0.25</v>
       </c>
-      <c r="G5" s="27">
+      <c r="H5" s="21">
         <v>0.5</v>
       </c>
-      <c r="H5" s="27">
+      <c r="I5" s="21">
         <v>0.25</v>
       </c>
-      <c r="I5" s="30">
+      <c r="J5" s="4">
         <v>14.5079231933478</v>
       </c>
-      <c r="J5" s="31">
+      <c r="K5" s="24">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K5" s="30">
+      <c r="L5" s="4">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L5" s="32">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>79.168110286474956</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>5.8318897135250438</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="33">
+      <c r="P5" s="26">
         <v>10</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>42</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="R5" s="23">
         <v>0</v>
       </c>
-      <c r="R5" s="29">
+      <c r="S5" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="29">
-        <v>1</v>
-      </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="23">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="V5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="29">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
+      <c r="W5" s="23">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:X5" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
+  <autoFilter ref="B2:Y5" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U5" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V5" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -1172,10 +1175,10 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1186,10 +1189,10 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>12</v>
       </c>
     </row>
@@ -1197,10 +1200,10 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>12</v>
       </c>
     </row>
@@ -1208,10 +1211,10 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>12</v>
       </c>
     </row>
@@ -1219,10 +1222,10 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1230,10 +1233,10 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>38</v>
       </c>
@@ -1242,10 +1245,10 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>150</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8"/>
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1254,10 +1257,10 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>300</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -1266,10 +1269,10 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="8"/>
       <c r="E10" t="s">
         <v>41</v>
       </c>
@@ -1302,75 +1305,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
       <c r="B5" s="3">
@@ -1387,7 +1390,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -1404,7 +1407,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="3">
@@ -1421,7 +1424,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="3">
@@ -1438,7 +1441,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="3">
@@ -1455,7 +1458,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="3">
@@ -1472,7 +1475,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
       <c r="B11" s="3">
@@ -1489,7 +1492,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
       <c r="B12" s="3">
@@ -1506,7 +1509,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="3">
@@ -1523,7 +1526,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
       <c r="B14" s="3">
@@ -1540,7 +1543,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="3">
@@ -1557,7 +1560,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="B16" s="3">
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="8">
         <v>12</v>
       </c>
       <c r="B17" s="3">
@@ -1591,7 +1594,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>13</v>
       </c>
       <c r="B18" s="3">
@@ -1608,7 +1611,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
       <c r="B19" s="3">
@@ -1625,7 +1628,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="8">
         <v>15</v>
       </c>
       <c r="B20" s="3">
@@ -1642,7 +1645,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="8">
         <v>16</v>
       </c>
       <c r="B21" s="3">
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
       <c r="B22" s="3">
@@ -1676,7 +1679,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="8">
         <v>18</v>
       </c>
       <c r="B23" s="3">
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
       <c r="B24" s="3">
@@ -1710,7 +1713,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="8">
         <v>20</v>
       </c>
       <c r="B25" s="3">
@@ -1727,7 +1730,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="8">
         <v>21</v>
       </c>
       <c r="B26" s="3">
@@ -1744,7 +1747,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>22</v>
       </c>
       <c r="B27" s="3">
@@ -1761,7 +1764,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
       <c r="B28" s="3">
@@ -1778,7 +1781,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
       <c r="B29" s="3">
@@ -1795,7 +1798,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
       <c r="B30" s="3">
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="8">
         <v>26</v>
       </c>
       <c r="B31" s="3">
@@ -1829,7 +1832,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="8">
         <v>27</v>
       </c>
       <c r="B32" s="3">
@@ -1846,7 +1849,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="8">
         <v>28</v>
       </c>
       <c r="B33" s="3">
@@ -1863,7 +1866,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="8">
         <v>29</v>
       </c>
       <c r="B34" s="3">
@@ -1880,7 +1883,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="8">
         <v>30</v>
       </c>
       <c r="B35" s="3">
@@ -1897,7 +1900,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="8">
         <v>31</v>
       </c>
       <c r="B36" s="3">
@@ -1914,7 +1917,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="8">
         <v>32</v>
       </c>
       <c r="B37" s="3">
@@ -1931,7 +1934,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="8">
         <v>33</v>
       </c>
       <c r="B38" s="3">
@@ -1948,7 +1951,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="8">
         <v>34</v>
       </c>
       <c r="B39" s="3">
@@ -1965,7 +1968,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="8">
         <v>35</v>
       </c>
       <c r="B40" s="3">
@@ -1982,7 +1985,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="8">
         <v>36</v>
       </c>
       <c r="B41" s="3">
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="8">
         <v>37</v>
       </c>
       <c r="B42" s="3">
@@ -2016,7 +2019,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="8">
         <v>38</v>
       </c>
       <c r="B43" s="3">
@@ -2033,7 +2036,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="8">
         <v>39</v>
       </c>
       <c r="B44" s="3">
@@ -2050,7 +2053,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="8">
         <v>40</v>
       </c>
       <c r="B45" s="3">
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="8">
         <v>41</v>
       </c>
       <c r="B46" s="3">
@@ -2084,7 +2087,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="8">
         <v>42</v>
       </c>
       <c r="B47" s="3">
@@ -2101,7 +2104,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="8">
         <v>43</v>
       </c>
       <c r="B48" s="3">
@@ -2118,7 +2121,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="8">
         <v>44</v>
       </c>
       <c r="B49" s="3">
@@ -2135,7 +2138,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="8">
         <v>45</v>
       </c>
       <c r="B50" s="3">
@@ -2152,7 +2155,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="8">
         <v>46</v>
       </c>
       <c r="B51" s="3">
@@ -2169,7 +2172,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="8">
         <v>47</v>
       </c>
       <c r="B52" s="3">
@@ -2186,7 +2189,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="8">
         <v>48</v>
       </c>
       <c r="B53" s="3">
@@ -2203,7 +2206,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="8">
         <v>49</v>
       </c>
       <c r="B54" s="3">
@@ -2220,7 +2223,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="8">
         <v>50</v>
       </c>
       <c r="B55" s="3">
@@ -2237,7 +2240,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="8">
         <v>51</v>
       </c>
       <c r="B56" s="3">
@@ -2254,7 +2257,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="8">
         <v>52</v>
       </c>
       <c r="B57" s="3">
@@ -2271,7 +2274,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="A58" s="8">
         <v>53</v>
       </c>
       <c r="B58" s="3">
@@ -2288,7 +2291,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="8">
         <v>54</v>
       </c>
       <c r="B59" s="3">
@@ -2305,7 +2308,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="8">
         <v>55</v>
       </c>
       <c r="B60" s="3">
@@ -2322,7 +2325,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="8">
         <v>56</v>
       </c>
       <c r="B61" s="3">
@@ -2339,7 +2342,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="8">
         <v>57</v>
       </c>
       <c r="B62" s="3">
@@ -2356,7 +2359,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="8">
         <v>58</v>
       </c>
       <c r="B63" s="3">
@@ -2373,7 +2376,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="8">
         <v>59</v>
       </c>
       <c r="B64" s="3">
@@ -2390,7 +2393,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="8">
         <v>60</v>
       </c>
       <c r="B65" s="3">
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="8">
         <v>61</v>
       </c>
       <c r="B66" s="3">
@@ -2424,7 +2427,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="8">
         <v>62</v>
       </c>
       <c r="B67" s="3">
@@ -2441,7 +2444,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="8">
         <v>63</v>
       </c>
       <c r="B68" s="3">
@@ -2458,7 +2461,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="A69" s="8">
         <v>64</v>
       </c>
       <c r="B69" s="3">
@@ -2475,7 +2478,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="8">
         <v>65</v>
       </c>
       <c r="B70" s="3">
@@ -2492,7 +2495,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="8">
         <v>66</v>
       </c>
       <c r="B71" s="3">
@@ -2509,7 +2512,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="A72" s="8">
         <v>67</v>
       </c>
       <c r="B72" s="3">
@@ -2526,7 +2529,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="A73" s="8">
         <v>68</v>
       </c>
       <c r="B73" s="3">
@@ -2543,7 +2546,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="A74" s="8">
         <v>69</v>
       </c>
       <c r="B74" s="3">
@@ -2560,7 +2563,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="8">
         <v>70</v>
       </c>
       <c r="B75" s="3">
@@ -2577,7 +2580,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+      <c r="A76" s="8">
         <v>71</v>
       </c>
       <c r="B76" s="3">
@@ -2594,7 +2597,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="A77" s="13">
         <v>72</v>
       </c>
       <c r="B77" s="5">
@@ -2640,610 +2643,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="18">
         <v>43453</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="8">
         <v>19</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="8">
         <v>21</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="8">
         <v>24</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="8">
         <v>25</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="8">
         <v>27</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="8">
         <v>31</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="8">
         <v>33</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="8">
         <v>37</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="8">
         <v>39</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="8">
         <v>40</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="8">
         <v>41</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="8">
         <v>42</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="8">
         <v>43</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="8">
         <v>44</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="8">
         <v>45</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="8">
         <v>46</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="8">
         <v>47</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="8">
         <v>48</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="8">
         <v>49</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="8">
         <v>50</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="8">
         <v>51</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="8">
         <v>52</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="8">
         <v>53</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="A58" s="8">
         <v>54</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="8">
         <v>55</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="8">
         <v>56</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="8">
         <v>57</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="8">
         <v>58</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="8">
         <v>59</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="8">
         <v>60</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="8">
         <v>61</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="8">
         <v>62</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="8">
         <v>63</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="8">
         <v>64</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="A69" s="8">
         <v>65</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="8">
         <v>66</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="8">
         <v>67</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="A72" s="8">
         <v>68</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="A73" s="8">
         <v>69</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="A74" s="8">
         <v>70</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="8">
         <v>71</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
+      <c r="A76" s="13">
         <v>72</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="20">
         <v>2.35E-2</v>
       </c>
     </row>
@@ -3279,114 +3282,114 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>63</v>
       </c>
     </row>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51C01B8-E0FD-41F8-BDB6-8CED515BEC87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C41FC-D453-400B-BA2C-1049ABAEA3C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2730" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -774,12 +774,12 @@
   </sheetPr>
   <dimension ref="B2:Y9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,8 +1158,8 @@
   </sheetPr>
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8">
         <v>12</v>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C41FC-D453-400B-BA2C-1049ABAEA3C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A3C9C5-EBE7-4553-996C-E5BC3D557723}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -247,12 +244,6 @@
     <t>Interest Rate Types</t>
   </si>
   <si>
-    <t>CoverageMonths</t>
-  </si>
-  <si>
-    <t>AnnualIncome</t>
-  </si>
-  <si>
     <t>Public School</t>
   </si>
   <si>
@@ -263,6 +254,15 @@
   </si>
   <si>
     <t>Margin</t>
+  </si>
+  <si>
+    <t>UnemploymentCoverage</t>
+  </si>
+  <si>
+    <t>DropOutWarranty</t>
+  </si>
+  <si>
+    <t>WarrantyCoverageMonths</t>
   </si>
 </sst>
 </file>
@@ -774,12 +774,12 @@
   </sheetPr>
   <dimension ref="B2:Y9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +801,9 @@
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -811,28 +812,28 @@
   <sheetData>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -847,40 +848,40 @@
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -888,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -938,17 +939,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="23">
-        <f>R3 * (12 / T3)</f>
         <v>0</v>
       </c>
       <c r="T3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="23">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1016,17 +1016,16 @@
         <v>0</v>
       </c>
       <c r="S4" s="23">
-        <f t="shared" ref="S4:S5" si="2">R4 * (12 / T4)</f>
         <v>0</v>
       </c>
       <c r="T4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4" s="23">
         <v>1</v>
@@ -1040,11 +1039,11 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <f t="shared" ref="B5" si="3">B4+1</f>
+        <f t="shared" ref="B5" si="2">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1094,17 +1093,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="23">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5" s="23">
         <v>1</v>
@@ -1158,7 +1156,7 @@
   </sheetPr>
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1173,21 +1171,21 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
@@ -1198,7 +1196,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -1209,7 +1207,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>25</v>
@@ -1220,7 +1218,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -1231,50 +1229,50 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>150</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>150</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3">
         <v>300</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>1000</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1306,53 +1304,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,15 +2642,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="18">
         <v>43453</v>
@@ -2663,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,125 +3270,125 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A3C9C5-EBE7-4553-996C-E5BC3D557723}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950FA952-BB54-4491-B66B-A0BCEA3736B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="825" windowWidth="16215" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$Y$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$AA$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>WarrantyCoverageMonths</t>
+  </si>
+  <si>
+    <t>WarrantyLagMonths</t>
+  </si>
+  <si>
+    <t>WarrantyRepayMonths</t>
+  </si>
+  <si>
+    <t>Institutional Two-Year</t>
+  </si>
+  <si>
+    <t>Institutional Four-Year</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -428,6 +440,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -772,21 +797,21 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:Y9"/>
+  <dimension ref="B2:AA9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -803,14 +828,14 @@
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.140625" customWidth="1"/>
     <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="24.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
@@ -829,19 +854,19 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -868,23 +893,29 @@
       <c r="T2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="Y2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -894,19 +925,19 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <v>0.25</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="28">
         <v>0.25</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="28">
         <v>0.5</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="28">
         <v>0.25</v>
       </c>
       <c r="J3" s="4">
@@ -944,23 +975,29 @@
       <c r="T3" s="23">
         <v>0</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="31">
+        <v>0</v>
+      </c>
+      <c r="V3" s="31">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="23">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <f>B3+1</f>
         <v>2</v>
@@ -971,19 +1008,19 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="27">
         <v>0.25</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="28">
         <v>0.25</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="28">
         <v>0.5</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="28">
         <v>0.25</v>
       </c>
       <c r="J4" s="4">
@@ -1021,25 +1058,31 @@
       <c r="T4" s="23">
         <v>0</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="31">
+        <v>0</v>
+      </c>
+      <c r="V4" s="31">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="23">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <f t="shared" ref="B5" si="2">B4+1</f>
+        <f t="shared" ref="B5:B7" si="2">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -1048,19 +1091,19 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="27">
         <v>0.25</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="28">
         <v>0.25</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="28">
         <v>0.5</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="28">
         <v>0.25</v>
       </c>
       <c r="J5" s="4">
@@ -1098,38 +1141,206 @@
       <c r="T5" s="23">
         <v>0</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="31">
+        <v>0</v>
+      </c>
+      <c r="V5" s="31">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="23">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" ref="M6" si="3">100-SUM(J6:L6)</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6" si="4">100-M6-SUM(O6:P6)-F6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0</v>
+      </c>
+      <c r="U6" s="31">
+        <v>6</v>
+      </c>
+      <c r="V6" s="31">
+        <v>36</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" ref="M7" si="5">100-SUM(J7:L7)</f>
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7" si="6">100-M7-SUM(O7:P7)-F7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6</v>
+      </c>
+      <c r="V7" s="31">
+        <v>36</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Y5" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
+  <autoFilter ref="B2:AA5" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V5" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
   </dataValidations>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dar Vadar\Desktop\EduSafe Repo\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950FA952-BB54-4491-B66B-A0BCEA3736B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F54671-2F7D-4169-9A8A-66018F87A341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="825" windowWidth="16215" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +324,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +356,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +410,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -387,9 +420,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,31 +459,34 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -797,126 +830,122 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:AA9"/>
+  <dimension ref="B2:AA8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C8" sqref="C8"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="22" width="24.42578125" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -925,72 +954,73 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="22">
         <v>0.25</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="30">
+        <v>36.871688739980776</v>
+      </c>
+      <c r="J3" s="31">
+        <v>18.077297612212142</v>
+      </c>
+      <c r="K3" s="30">
+        <v>3.9588553533675892</v>
+      </c>
+      <c r="L3" s="32">
+        <f>100-SUM(I3:K3)</f>
+        <v>41.092158294439493</v>
+      </c>
+      <c r="M3" s="33">
         <v>5</v>
       </c>
-      <c r="G3" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="J3" s="4">
-        <v>36.871688739980776</v>
-      </c>
-      <c r="K3" s="24">
-        <v>18.077297612212142</v>
-      </c>
-      <c r="L3" s="4">
-        <v>3.9588553533675892</v>
-      </c>
-      <c r="M3" s="25">
-        <f>100-SUM(J3:L3)</f>
-        <v>41.092158294439493</v>
-      </c>
-      <c r="N3" s="7">
-        <f>100-M3-SUM(O3:P3)-F3</f>
-        <v>37.907841705560507</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="N3" s="33">
         <v>10</v>
       </c>
-      <c r="P3" s="26">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="O3" s="33">
+        <f>(SUM(I3:K3)-M3-N3)*0.25</f>
+        <v>10.976960426390127</v>
+      </c>
+      <c r="P3" s="33">
+        <f t="shared" ref="P3:P6" si="0">100-SUM(L3:O3)</f>
+        <v>32.930881279170379</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>5000</v>
+      </c>
+      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
         <v>36</v>
       </c>
-      <c r="R3" s="23">
-        <v>0</v>
-      </c>
-      <c r="S3" s="23">
-        <v>0</v>
-      </c>
-      <c r="T3" s="23">
-        <v>0</v>
-      </c>
-      <c r="U3" s="31">
-        <v>0</v>
-      </c>
-      <c r="V3" s="31">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3">
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="35">
         <v>0</v>
       </c>
       <c r="AA3" s="6">
@@ -998,7 +1028,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>B3+1</f>
         <v>2</v>
       </c>
@@ -1008,72 +1038,73 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="22">
         <v>0.25</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="30">
+        <v>54.298366358291453</v>
+      </c>
+      <c r="J4" s="31">
+        <v>9.8466660264413051</v>
+      </c>
+      <c r="K4" s="30">
+        <v>1.7125985295518689</v>
+      </c>
+      <c r="L4" s="32">
+        <f t="shared" ref="L4:L5" si="1">100-SUM(I4:K4)</f>
+        <v>34.142369085715373</v>
+      </c>
+      <c r="M4" s="33">
         <v>5</v>
       </c>
-      <c r="G4" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="4">
-        <v>54.298366358291453</v>
-      </c>
-      <c r="K4" s="24">
-        <v>9.8466660264413051</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1.7125985295518689</v>
-      </c>
-      <c r="M4" s="25">
-        <f t="shared" ref="M4:M5" si="0">100-SUM(J4:L4)</f>
-        <v>34.142369085715373</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:N5" si="1">100-M4-SUM(O4:P4)-F4</f>
-        <v>39.857630914284627</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4" s="33">
         <v>18</v>
       </c>
-      <c r="P4" s="26">
-        <v>2.9999999999999956</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="O4" s="33">
+        <f t="shared" ref="O4:O7" si="2">(SUM(I4:K4)-M4-N4)*0.25</f>
+        <v>10.714407728571157</v>
+      </c>
+      <c r="P4" s="33">
+        <f t="shared" si="0"/>
+        <v>32.143223185713467</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>5000</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
         <v>24</v>
       </c>
-      <c r="R4" s="23">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="31">
-        <v>0</v>
-      </c>
-      <c r="V4" s="31">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3">
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="35">
         <v>0</v>
       </c>
       <c r="AA4" s="6">
@@ -1081,8 +1112,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <f t="shared" ref="B5:B7" si="2">B4+1</f>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B7" si="3">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -1091,72 +1122,73 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="22">
         <v>0.25</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <v>14.5079231933478</v>
       </c>
-      <c r="K5" s="24">
+      <c r="J5" s="31">
         <v>4.4493882091212456</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="30">
         <v>1.8745783110559984</v>
       </c>
-      <c r="M5" s="25">
+      <c r="L5" s="32">
+        <f t="shared" si="1"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <f t="shared" si="2"/>
+        <v>5.207972428381261</v>
+      </c>
+      <c r="P5" s="33">
         <f t="shared" si="0"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8318897135250438</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>15.62391728514379</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>5000</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
         <v>42</v>
       </c>
-      <c r="R5" s="23">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="31">
-        <v>0</v>
-      </c>
-      <c r="V5" s="31">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3">
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="35">
         <v>0</v>
       </c>
       <c r="AA5" s="6">
@@ -1164,8 +1196,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <f t="shared" si="2"/>
+      <c r="B6" s="7">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1174,81 +1206,82 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="22">
         <v>0.15</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
         <v>0</v>
       </c>
       <c r="K6" s="30">
         <v>0</v>
       </c>
-      <c r="L6" s="29">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <f t="shared" ref="M6" si="3">100-SUM(J6:L6)</f>
+      <c r="L6" s="32">
+        <f t="shared" ref="L6" si="4">100-SUM(I6:K6)</f>
         <v>100</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6" si="4">100-M6-SUM(O6:P6)-F6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="31">
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
         <v>6</v>
       </c>
-      <c r="V6" s="31">
+      <c r="U6" s="21">
         <v>36</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="31">
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <f t="shared" si="2"/>
+      <c r="B7" s="7">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -1257,90 +1290,87 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="22">
         <v>0.15</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
         <v>0</v>
       </c>
       <c r="K7" s="30">
         <v>0</v>
       </c>
-      <c r="L7" s="29">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <f t="shared" ref="M7" si="5">100-SUM(J7:L7)</f>
+      <c r="L7" s="32">
+        <f t="shared" ref="L7" si="5">100-SUM(I7:K7)</f>
         <v>100</v>
       </c>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7" si="6">100-M7-SUM(O7:P7)-F7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="31">
+      <c r="M7" s="33">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" ref="P7" si="6">100-SUM(L7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
         <v>6</v>
       </c>
-      <c r="V7" s="31">
+      <c r="U7" s="21">
         <v>36</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="31">
+      <c r="Y7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F8" s="23"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AA5" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7" xr:uid="{DF6B56E6-76BB-4708-A7DD-2CA76BE98E95}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -1348,9 +1378,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37D89F82-1F0F-4FCB-ADC5-F43C49CA39E5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8860D69F-0105-4562-8089-B0F314B04EDB}">
           <x14:formula1>
-            <xm:f>Vectors!$B$4:$E$4</xm:f>
+            <xm:f>'[EduSafe-Website-Scenario-Data v2.xlsx]Vectors'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
@@ -1384,10 +1414,10 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1401,7 +1431,7 @@
       <c r="C3" s="3">
         <v>25</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1412,7 +1442,7 @@
       <c r="C4" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1423,7 +1453,7 @@
       <c r="C5" s="3">
         <v>25</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1434,7 +1464,7 @@
       <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1475,7 @@
       <c r="C7" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1487,7 @@
       <c r="C8" s="3">
         <v>150</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1499,7 @@
       <c r="C9" s="3">
         <v>300</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1511,7 @@
       <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>40</v>
       </c>
@@ -1514,75 +1544,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>0</v>
       </c>
       <c r="B5" s="3">
@@ -1599,7 +1629,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -1616,7 +1646,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="3">
@@ -1633,7 +1663,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="3">
@@ -1650,7 +1680,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="3">
@@ -1667,7 +1697,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="3">
@@ -1684,7 +1714,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="3">
@@ -1701,7 +1731,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="3">
@@ -1718,7 +1748,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="3">
@@ -1735,7 +1765,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="3">
@@ -1752,7 +1782,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="3">
@@ -1769,7 +1799,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
       <c r="B16" s="3">
@@ -1786,7 +1816,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="3">
@@ -1803,7 +1833,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
       <c r="B18" s="3">
@@ -1820,7 +1850,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="3">
@@ -1837,7 +1867,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="3">
@@ -1854,7 +1884,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="3">
@@ -1871,7 +1901,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="3">
@@ -1888,7 +1918,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>18</v>
       </c>
       <c r="B23" s="3">
@@ -1905,7 +1935,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>19</v>
       </c>
       <c r="B24" s="3">
@@ -1922,7 +1952,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>20</v>
       </c>
       <c r="B25" s="3">
@@ -1939,7 +1969,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>21</v>
       </c>
       <c r="B26" s="3">
@@ -1956,7 +1986,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>22</v>
       </c>
       <c r="B27" s="3">
@@ -1973,7 +2003,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>23</v>
       </c>
       <c r="B28" s="3">
@@ -1990,7 +2020,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>24</v>
       </c>
       <c r="B29" s="3">
@@ -2007,7 +2037,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>25</v>
       </c>
       <c r="B30" s="3">
@@ -2024,7 +2054,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>26</v>
       </c>
       <c r="B31" s="3">
@@ -2041,7 +2071,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>27</v>
       </c>
       <c r="B32" s="3">
@@ -2058,7 +2088,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>28</v>
       </c>
       <c r="B33" s="3">
@@ -2075,7 +2105,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>29</v>
       </c>
       <c r="B34" s="3">
@@ -2092,7 +2122,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>30</v>
       </c>
       <c r="B35" s="3">
@@ -2109,7 +2139,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>31</v>
       </c>
       <c r="B36" s="3">
@@ -2126,7 +2156,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="3">
@@ -2143,7 +2173,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>33</v>
       </c>
       <c r="B38" s="3">
@@ -2160,7 +2190,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>34</v>
       </c>
       <c r="B39" s="3">
@@ -2177,7 +2207,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>35</v>
       </c>
       <c r="B40" s="3">
@@ -2194,7 +2224,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>36</v>
       </c>
       <c r="B41" s="3">
@@ -2211,7 +2241,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>37</v>
       </c>
       <c r="B42" s="3">
@@ -2228,7 +2258,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>38</v>
       </c>
       <c r="B43" s="3">
@@ -2245,7 +2275,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>39</v>
       </c>
       <c r="B44" s="3">
@@ -2262,7 +2292,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>40</v>
       </c>
       <c r="B45" s="3">
@@ -2279,7 +2309,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>41</v>
       </c>
       <c r="B46" s="3">
@@ -2296,7 +2326,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>42</v>
       </c>
       <c r="B47" s="3">
@@ -2313,7 +2343,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>43</v>
       </c>
       <c r="B48" s="3">
@@ -2330,7 +2360,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>44</v>
       </c>
       <c r="B49" s="3">
@@ -2347,7 +2377,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>45</v>
       </c>
       <c r="B50" s="3">
@@ -2364,7 +2394,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>46</v>
       </c>
       <c r="B51" s="3">
@@ -2381,7 +2411,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>47</v>
       </c>
       <c r="B52" s="3">
@@ -2398,7 +2428,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>48</v>
       </c>
       <c r="B53" s="3">
@@ -2415,7 +2445,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>49</v>
       </c>
       <c r="B54" s="3">
@@ -2432,7 +2462,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>50</v>
       </c>
       <c r="B55" s="3">
@@ -2449,7 +2479,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>51</v>
       </c>
       <c r="B56" s="3">
@@ -2466,7 +2496,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>52</v>
       </c>
       <c r="B57" s="3">
@@ -2483,7 +2513,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>53</v>
       </c>
       <c r="B58" s="3">
@@ -2500,7 +2530,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>54</v>
       </c>
       <c r="B59" s="3">
@@ -2517,7 +2547,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>55</v>
       </c>
       <c r="B60" s="3">
@@ -2534,7 +2564,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>56</v>
       </c>
       <c r="B61" s="3">
@@ -2551,7 +2581,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>57</v>
       </c>
       <c r="B62" s="3">
@@ -2568,7 +2598,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>58</v>
       </c>
       <c r="B63" s="3">
@@ -2585,7 +2615,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>59</v>
       </c>
       <c r="B64" s="3">
@@ -2602,7 +2632,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>60</v>
       </c>
       <c r="B65" s="3">
@@ -2619,7 +2649,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>61</v>
       </c>
       <c r="B66" s="3">
@@ -2636,7 +2666,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>62</v>
       </c>
       <c r="B67" s="3">
@@ -2653,7 +2683,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>63</v>
       </c>
       <c r="B68" s="3">
@@ -2670,7 +2700,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>64</v>
       </c>
       <c r="B69" s="3">
@@ -2687,7 +2717,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>65</v>
       </c>
       <c r="B70" s="3">
@@ -2704,7 +2734,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>66</v>
       </c>
       <c r="B71" s="3">
@@ -2721,7 +2751,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>67</v>
       </c>
       <c r="B72" s="3">
@@ -2738,7 +2768,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>68</v>
       </c>
       <c r="B73" s="3">
@@ -2755,7 +2785,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>69</v>
       </c>
       <c r="B74" s="3">
@@ -2772,7 +2802,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>70</v>
       </c>
       <c r="B75" s="3">
@@ -2789,7 +2819,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>71</v>
       </c>
       <c r="B76" s="3">
@@ -2806,7 +2836,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>72</v>
       </c>
       <c r="B77" s="5">
@@ -2852,610 +2882,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>43453</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>24</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>26</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>27</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>28</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>29</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>30</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>31</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>32</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>33</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>34</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>35</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>37</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>38</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>39</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>40</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>41</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>42</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>43</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>44</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>45</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>46</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>47</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>49</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>50</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>51</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>52</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>53</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>54</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>55</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>56</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>57</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>58</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>59</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>60</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>61</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>62</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>63</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>64</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>65</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>66</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>67</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>68</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>69</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>70</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>71</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>72</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="19">
         <v>2.35E-2</v>
       </c>
     </row>
@@ -3491,114 +3521,114 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>62</v>
       </c>
     </row>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dar Vadar\Desktop\EduSafe Repo\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F54671-2F7D-4169-9A8A-66018F87A341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ECD9D3-EBC4-430F-9834-6BE792B75CD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,18 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$AA$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$AB$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
     <definedName name="Assumptions_TargetStart_Scenario2">'[1]Assumptions - Dropouts'!$D$4</definedName>
     <definedName name="Assumptions_TargetStart_Scenario3">'[1]Assumptions - Dropouts'!$D$5</definedName>
     <definedName name="Assumptions_TargetStart_Scenario4">'[1]Assumptions - Dropouts'!$D$6</definedName>
+    <definedName name="CostModelNames">'[3]Lists Options (Ignored)'!$F$3:$F$4</definedName>
     <definedName name="EventTypes">'Lists Options (Ignored)'!$C$3:$C$7</definedName>
     <definedName name="InterestRateTypes">'Lists Options (Ignored)'!$D$3:$D$16</definedName>
     <definedName name="VectorTypes">'Lists Options (Ignored)'!$B$3:$B$4</definedName>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>Scenario</t>
   </si>
@@ -275,6 +278,15 @@
   </si>
   <si>
     <t>Institutional Four-Year</t>
+  </si>
+  <si>
+    <t>CostModelName</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Individual</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -464,9 +476,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +568,69 @@
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Costs"/>
+      <sheetName val="Vectors"/>
+      <sheetName val="DiscountRates"/>
+      <sheetName val="Lists Options (Ignored)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ForecastingParameters"/>
+      <sheetName val="ForecastedEnrollments"/>
+      <sheetName val="ForecastedFirstYearPercent"/>
+      <sheetName val="ReinvestmentOptions"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="ShockParameters"/>
+      <sheetName val="Costs"/>
+      <sheetName val="Vectors"/>
+      <sheetName val="DiscountRates"/>
+      <sheetName val="Lists Options (Ignored)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>Institutional</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>Individual</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -830,10 +902,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:AA8"/>
+  <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +914,7 @@
     <col min="2" max="2" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
@@ -864,87 +936,90 @@
     <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -954,51 +1029,51 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="22">
         <v>0.25</v>
       </c>
-      <c r="F3" s="29">
+      <c r="G3" s="28">
         <v>0.25</v>
       </c>
-      <c r="G3" s="29">
+      <c r="H3" s="28">
         <v>0.5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="I3" s="28">
         <v>0.25</v>
       </c>
-      <c r="I3" s="30">
+      <c r="J3" s="29">
         <v>36.871688739980776</v>
       </c>
-      <c r="J3" s="31">
+      <c r="K3" s="30">
         <v>18.077297612212142</v>
       </c>
-      <c r="K3" s="30">
+      <c r="L3" s="29">
         <v>3.9588553533675892</v>
       </c>
-      <c r="L3" s="32">
-        <f>100-SUM(I3:K3)</f>
+      <c r="M3" s="31">
+        <f>100-SUM(J3:L3)</f>
         <v>41.092158294439493</v>
       </c>
-      <c r="M3" s="33">
+      <c r="N3" s="32">
         <v>5</v>
       </c>
-      <c r="N3" s="33">
+      <c r="O3" s="32">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
-        <f>(SUM(I3:K3)-M3-N3)*0.25</f>
+      <c r="P3" s="32">
+        <f>(SUM(J3:L3)-N3-O3)*0.25</f>
         <v>10.976960426390127</v>
       </c>
-      <c r="P3" s="33">
-        <f t="shared" ref="P3:P6" si="0">100-SUM(L3:O3)</f>
+      <c r="Q3" s="32">
+        <f t="shared" ref="Q3:Q6" si="0">100-SUM(M3:P3)</f>
         <v>32.930881279170379</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="R3" s="21">
         <v>5000</v>
       </c>
-      <c r="R3" s="21">
-        <v>0</v>
-      </c>
       <c r="S3" s="21">
         <v>0</v>
       </c>
@@ -1008,26 +1083,29 @@
       <c r="U3" s="21">
         <v>0</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
         <v>36</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <f>B3+1</f>
         <v>2</v>
@@ -1038,51 +1116,51 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="22">
         <v>0.25</v>
       </c>
-      <c r="F4" s="29">
+      <c r="G4" s="28">
         <v>0.25</v>
       </c>
-      <c r="G4" s="29">
+      <c r="H4" s="28">
         <v>0.5</v>
       </c>
-      <c r="H4" s="29">
+      <c r="I4" s="28">
         <v>0.25</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="29">
         <v>54.298366358291453</v>
       </c>
-      <c r="J4" s="31">
+      <c r="K4" s="30">
         <v>9.8466660264413051</v>
       </c>
-      <c r="K4" s="30">
+      <c r="L4" s="29">
         <v>1.7125985295518689</v>
       </c>
-      <c r="L4" s="32">
-        <f t="shared" ref="L4:L5" si="1">100-SUM(I4:K4)</f>
+      <c r="M4" s="31">
+        <f t="shared" ref="M4:M5" si="1">100-SUM(J4:L4)</f>
         <v>34.142369085715373</v>
       </c>
-      <c r="M4" s="33">
+      <c r="N4" s="32">
         <v>5</v>
       </c>
-      <c r="N4" s="33">
+      <c r="O4" s="32">
         <v>18</v>
       </c>
-      <c r="O4" s="33">
-        <f t="shared" ref="O4:O7" si="2">(SUM(I4:K4)-M4-N4)*0.25</f>
+      <c r="P4" s="32">
+        <f t="shared" ref="P4:P7" si="2">(SUM(J4:L4)-N4-O4)*0.25</f>
         <v>10.714407728571157</v>
       </c>
-      <c r="P4" s="33">
+      <c r="Q4" s="32">
         <f t="shared" si="0"/>
         <v>32.143223185713467</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="R4" s="21">
         <v>5000</v>
       </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
       <c r="S4" s="21">
         <v>0</v>
       </c>
@@ -1092,26 +1170,29 @@
       <c r="U4" s="21">
         <v>0</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>24</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="X4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="Y4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f t="shared" ref="B5:B7" si="3">B4+1</f>
         <v>3</v>
@@ -1122,51 +1203,51 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="22">
         <v>0.25</v>
       </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J5" s="31">
+      <c r="K5" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K5" s="30">
+      <c r="L5" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L5" s="32">
+      <c r="M5" s="31">
         <f t="shared" si="1"/>
         <v>79.168110286474956</v>
       </c>
-      <c r="M5" s="33">
-        <v>0</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
         <f t="shared" si="2"/>
         <v>5.207972428381261</v>
       </c>
-      <c r="P5" s="33">
+      <c r="Q5" s="32">
         <f t="shared" si="0"/>
         <v>15.62391728514379</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="R5" s="21">
         <v>5000</v>
       </c>
-      <c r="R5" s="21">
-        <v>0</v>
-      </c>
       <c r="S5" s="21">
         <v>0</v>
       </c>
@@ -1176,26 +1257,29 @@
       <c r="U5" s="21">
         <v>0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>42</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="X5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="Y5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="6">
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1206,48 +1290,48 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="22">
         <v>0.15</v>
       </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="31">
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
         <v>0</v>
       </c>
       <c r="K6" s="30">
         <v>0</v>
       </c>
-      <c r="L6" s="32">
-        <f t="shared" ref="L6" si="4">100-SUM(I6:K6)</f>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" ref="M6" si="4">100-SUM(J6:L6)</f>
         <v>100</v>
       </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="33">
+      <c r="Q6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="21">
-        <v>0</v>
-      </c>
       <c r="R6" s="21">
         <v>0</v>
       </c>
@@ -1255,31 +1339,34 @@
         <v>0</v>
       </c>
       <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
         <v>6</v>
       </c>
-      <c r="U6" s="21">
+      <c r="V6" s="21">
         <v>36</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="Y6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1290,46 +1377,46 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="22">
         <v>0.15</v>
       </c>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31">
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
         <v>0</v>
       </c>
       <c r="K7" s="30">
         <v>0</v>
       </c>
-      <c r="L7" s="32">
-        <f t="shared" ref="L7" si="5">100-SUM(I7:K7)</f>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" ref="M7" si="5">100-SUM(J7:L7)</f>
         <v>100</v>
       </c>
-      <c r="M7" s="33">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="33">
-        <f t="shared" ref="P7" si="6">100-SUM(L7:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="32">
+        <f t="shared" ref="Q7" si="6">100-SUM(M7:P7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="21">
@@ -1339,39 +1426,40 @@
         <v>0</v>
       </c>
       <c r="T7" s="21">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
         <v>6</v>
       </c>
-      <c r="U7" s="21">
+      <c r="V7" s="21">
         <v>36</v>
       </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="34" t="s">
+      <c r="Y7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F8" s="23"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7" xr:uid="{DF6B56E6-76BB-4708-A7DD-2CA76BE98E95}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y7" xr:uid="{DF6B56E6-76BB-4708-A7DD-2CA76BE98E95}">
       <formula1>InterestRateTypes</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{C0A350BC-FE76-4503-BEA6-662D5F8819EF}">
+      <formula1>CostModelNames</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,7 +1468,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8860D69F-0105-4562-8089-B0F314B04EDB}">
           <x14:formula1>
-            <xm:f>'[EduSafe-Website-Scenario-Data v2.xlsx]Vectors'!#REF!</xm:f>
+            <xm:f>'C:\Users\Dar Vadar\Desktop\[EduSafe-Website-Scenario-Data v2.xlsx]Vectors'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
@@ -1395,131 +1483,278 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E11" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D12" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E12" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D13" s="3">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D15" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D16" s="3">
         <v>150</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D17" s="3">
         <v>300</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D18" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{F903BC20-FB80-4A09-831A-5318AFFB79F9}">
       <formula1>EventTypes</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B18" xr:uid="{38D9548E-E9F9-4C9E-ADD2-467F211077AC}">
+      <formula1>CostModelNames</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
+++ b/EduSafe.WebApi/App_Data/EduSafe-Website-Scenario-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dar Vadar\Desktop\EduSafe Repo\edusafe\EduSafe.WebApi\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ECD9D3-EBC4-430F-9834-6BE792B75CD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4268F-0946-4112-86AC-1BF109145E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <sheet name="DiscountRates" sheetId="6" r:id="rId4"/>
     <sheet name="Lists Options (Ignored)" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$AB$5</definedName>
-    <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
-    <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
-    <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
-    <definedName name="Assumptions_TargetStart_Scenario2">'[1]Assumptions - Dropouts'!$D$4</definedName>
-    <definedName name="Assumptions_TargetStart_Scenario3">'[1]Assumptions - Dropouts'!$D$5</definedName>
-    <definedName name="Assumptions_TargetStart_Scenario4">'[1]Assumptions - Dropouts'!$D$6</definedName>
-    <definedName name="CostModelNames">'[3]Lists Options (Ignored)'!$F$3:$F$4</definedName>
-    <definedName name="EventTypes">'Lists Options (Ignored)'!$C$3:$C$7</definedName>
-    <definedName name="InterestRateTypes">'Lists Options (Ignored)'!$D$3:$D$16</definedName>
+    <definedName name="CostModelNames">'Lists Options (Ignored)'!$C$3:$C$4</definedName>
+    <definedName name="EventTypes">'Lists Options (Ignored)'!$D$3:$D$7</definedName>
+    <definedName name="InterestRateTypes">'Lists Options (Ignored)'!$E$3:$E$16</definedName>
     <definedName name="VectorTypes">'Lists Options (Ignored)'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>Scenario</t>
   </si>
@@ -287,6 +276,9 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>CostModelNames</t>
   </si>
 </sst>
 </file>
@@ -422,7 +414,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -496,6 +488,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -513,127 +508,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Assumptions"/>
-      <sheetName val="Assumptions - Dropouts"/>
-      <sheetName val="TopLevelCurveScenarioResults"/>
-      <sheetName val="Module 1 - Probability Curves"/>
-      <sheetName val="Student State Flow"/>
-      <sheetName val="Module 1 - Sand Chart"/>
-      <sheetName val="Module 2 - Curves"/>
-      <sheetName val="Module 3 - Costs"/>
-      <sheetName val="Module 4 - Analytic"/>
-      <sheetName val="Module 4 - Solver"/>
-      <sheetName val="Model Module Guide"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="D4">
-            <v>1.5</v>
-          </cell>
-          <cell r="F4">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.25</v>
-          </cell>
-          <cell r="F5">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="F6">
-            <v>0.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Costs"/>
-      <sheetName val="Vectors"/>
-      <sheetName val="DiscountRates"/>
-      <sheetName val="Lists Options (Ignored)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ForecastingParameters"/>
-      <sheetName val="ForecastedEnrollments"/>
-      <sheetName val="ForecastedFirstYearPercent"/>
-      <sheetName val="ReinvestmentOptions"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="ShockParameters"/>
-      <sheetName val="Costs"/>
-      <sheetName val="Vectors"/>
-      <sheetName val="DiscountRates"/>
-      <sheetName val="Lists Options (Ignored)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>Institutional</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>Individual</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,8 +778,8 @@
   </sheetPr>
   <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,13 +909,13 @@
       <c r="F3" s="22">
         <v>0.25</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="35">
         <v>0.25</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="35">
         <v>0.5</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="35">
         <v>0.25</v>
       </c>
       <c r="J3" s="29">
@@ -1122,13 +996,13 @@
       <c r="F4" s="22">
         <v>0.25</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="35">
         <v>0.25</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="35">
         <v>0.5</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="35">
         <v>0.25</v>
       </c>
       <c r="J4" s="29">
@@ -1209,14 +1083,14 @@
       <c r="F5" s="22">
         <v>0.25</v>
       </c>
-      <c r="G5" s="28">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
+      <c r="G5" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.25</v>
       </c>
       <c r="J5" s="29">
         <v>14.5079231933478</v>
@@ -1454,27 +1328,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y7" xr:uid="{DF6B56E6-76BB-4708-A7DD-2CA76BE98E95}">
-      <formula1>InterestRateTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{C0A350BC-FE76-4503-BEA6-662D5F8819EF}">
-      <formula1>CostModelNames</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8860D69F-0105-4562-8089-B0F314B04EDB}">
-          <x14:formula1>
-            <xm:f>'C:\Users\Dar Vadar\Desktop\[EduSafe-Website-Scenario-Data v2.xlsx]Vectors'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1486,7 +1341,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{F903BC20-FB80-4A09-831A-5318AFFB79F9}">
       <formula1>EventTypes</formula1>
     </dataValidation>
@@ -1769,7 +1624,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,14 +2943,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1" xr:uid="{97FE6EC8-C98D-4709-910F-16A7B57007B9}">
-      <formula1>VectorTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E3" xr:uid="{FD0B1468-4BDA-42AA-BF9D-B298FF630D0D}">
-      <formula1>EventTypes</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3108,7 +2955,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,136 +3581,161 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
